--- a/krilov/files/3/3var15-18.xlsx
+++ b/krilov/files/3/3var15-18.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Производственные базы" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Наличие!$A$1:$H$2283</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Наличие!$A$1:$I$2283</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Продукты!$A$1:$C$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Производственные базы'!$A$1:$C$17</definedName>
   </definedNames>
@@ -962,7 +962,7 @@
   <dimension ref="A1:I2283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I420" sqref="I420"/>
+      <selection activeCell="E2290" sqref="E2290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3797,7 +3797,7 @@
         <v>облепиха</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>клюква</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>малина</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>лук репка</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>морковь</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>облепиха</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -32921,7 +32921,7 @@
         <v>облепиха</v>
       </c>
     </row>
-    <row r="1142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1142" s="1">
         <v>1141</v>
       </c>
@@ -45661,7 +45661,7 @@
         <v>кукуруза</v>
       </c>
     </row>
-    <row r="1597" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1597" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1597" s="1">
         <v>1596</v>
       </c>
@@ -48209,7 +48209,7 @@
         <v>огурцы короткоплодные</v>
       </c>
     </row>
-    <row r="1688" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1688" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1688" s="1">
         <v>1687</v>
       </c>
@@ -64898,25 +64898,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H2283">
+  <autoFilter ref="A1:I2283">
     <filterColumn colId="1">
       <filters>
-        <filter val="10.8.2021"/>
-        <filter val="12.8.2021"/>
-        <filter val="12.9.2021"/>
-        <filter val="15.9.2021"/>
+        <filter val="15.8.2021"/>
+        <filter val="3.8.2021"/>
+        <filter val="30.8.2021"/>
+        <filter val="5.8.2021"/>
+        <filter val="7.8.2021"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
       <filters>
-        <filter val="Московская область, деревня Озерное, д.8"/>
-        <filter val="Московская область, деревня Семечкино, д.9"/>
-        <filter val="Московская область, деревня Юрово, д.1"/>
+        <filter val="Владимирская область, деревня Кукушкино, строение 7"/>
+        <filter val="Владимирская область, деревня Чистово, д.11"/>
+        <filter val="Владимирская область, деревня Шалашилино, д.6"/>
       </filters>
     </filterColumn>
     <filterColumn colId="7">
       <filters>
-        <filter val="патиссон"/>
+        <filter val="шиповник"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -64934,7 +64935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -65680,7 +65681,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
